--- a/initial_coeff_NCG_purchase.xlsx
+++ b/initial_coeff_NCG_purchase.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gourab\Rcodes3\results_save\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wkar\Downloads\emarketing-master\emarketing-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778A18CC-6784-4EFF-8ECF-BD5B203BAD29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,40 +51,40 @@
     <t>age</t>
   </si>
   <si>
-    <t>incomeK</t>
-  </si>
-  <si>
-    <t>incomeL</t>
-  </si>
-  <si>
-    <t>incomeM</t>
-  </si>
-  <si>
-    <t>incomeN</t>
-  </si>
-  <si>
-    <t>incomeO</t>
-  </si>
-  <si>
-    <t>incomeP</t>
-  </si>
-  <si>
-    <t>incomeQ</t>
-  </si>
-  <si>
-    <t>incomeR</t>
-  </si>
-  <si>
     <t>daysSincePurchased1</t>
   </si>
   <si>
     <t>daysSincePurchasedSq</t>
+  </si>
+  <si>
+    <t>income2</t>
+  </si>
+  <si>
+    <t>income3</t>
+  </si>
+  <si>
+    <t>income4</t>
+  </si>
+  <si>
+    <t>income5</t>
+  </si>
+  <si>
+    <t>income6</t>
+  </si>
+  <si>
+    <t>income7</t>
+  </si>
+  <si>
+    <t>income8</t>
+  </si>
+  <si>
+    <t>income9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,17 +429,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -474,7 +475,7 @@
         <v>3.8454015323420592E-79</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -491,7 +492,7 @@
         <v>0.83925868059170283</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -508,7 +509,7 @@
         <v>2.7291641013224817E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -525,7 +526,7 @@
         <v>9.4168142657634671E-37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -542,9 +543,9 @@
         <v>1.6625261642112175E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>-1.7754583813994317E-2</v>
@@ -559,9 +560,9 @@
         <v>0.91486235327793364</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>-9.9980636796365915E-2</v>
@@ -576,9 +577,9 @@
         <v>0.534369854227006</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>-3.189539156281395E-2</v>
@@ -593,9 +594,9 @@
         <v>0.8275541930763034</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>-7.7627964607428032E-2</v>
@@ -610,9 +611,9 @@
         <v>0.57300090559130357</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>-0.11240601982202605</v>
@@ -627,9 +628,9 @@
         <v>0.44059094557275114</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>-0.12846222291091983</v>
@@ -644,9 +645,9 @@
         <v>0.41405465984559831</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>2.0779420394973335E-2</v>
@@ -661,9 +662,9 @@
         <v>0.91184913383380473</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>8.5285709461008899E-2</v>
@@ -678,9 +679,9 @@
         <v>0.60133050344188832</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>-0.25927325745089791</v>
@@ -695,9 +696,9 @@
         <v>1.4840510357616138E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>1.7258231563146764E-2</v>
